--- a/rounds/2017-streaming/score.xlsx
+++ b/rounds/2017-streaming/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieleratti/hashcode/hashcode-framework/rounds/2017-streaming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C318E67-E446-9B40-A983-15B3A76887FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4460CE7B-4EC7-D240-86BB-A10705001472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{B82F76D9-6870-8643-87CF-9650B54CEEC4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
@@ -74,13 +74,10 @@
     <t>Best score ultimo finalista</t>
   </si>
   <si>
-    <t>sol-topo-3</t>
-  </si>
-  <si>
-    <t>forse era 77581 su questo???</t>
-  </si>
-  <si>
-    <t>sol-topo-e-cis</t>
+    <t>sol-topo-3 / e-gis</t>
+  </si>
+  <si>
+    <t>sol-topo-e-gis</t>
   </si>
 </sst>
 </file>
@@ -88,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -144,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -462,9 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0477EA-0528-AF4B-B13F-166FF85122DC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -519,9 +514,6 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -539,16 +531,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>878588</v>
+        <v>1010399</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>2408538</v>
+        <v>2540349</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -560,7 +552,7 @@
       </c>
       <c r="C10" s="4">
         <f>B7/B10</f>
-        <v>1.1092822686203114</v>
+        <v>1.169989471541383</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -572,7 +564,7 @@
       </c>
       <c r="C11" s="4">
         <f>B7/B11</f>
-        <v>0.90819717503664221</v>
+        <v>0.95789968246594359</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -584,7 +576,7 @@
       </c>
       <c r="C12" s="4">
         <f>B7/B12</f>
-        <v>0.9339588839667945</v>
+        <v>0.98507124111231059</v>
       </c>
     </row>
   </sheetData>

--- a/rounds/2017-streaming/score.xlsx
+++ b/rounds/2017-streaming/score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieleratti/hashcode/hashcode-framework/rounds/2017-streaming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4460CE7B-4EC7-D240-86BB-A10705001472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47903E3B-261D-D24E-967F-340823842FFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{B82F76D9-6870-8643-87CF-9650B54CEEC4}"/>
+    <workbookView xWindow="5740" yWindow="-28300" windowWidth="34120" windowHeight="28300" xr2:uid="{B82F76D9-6870-8643-87CF-9650B54CEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>a</t>
   </si>
@@ -62,9 +62,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>Best score vecchio nostro</t>
-  </si>
-  <si>
     <t>Best score primo in class.</t>
   </si>
   <si>
@@ -78,6 +75,27 @@
   </si>
   <si>
     <t>sol-topo-e-gis</t>
+  </si>
+  <si>
+    <t>Versione 2021</t>
+  </si>
+  <si>
+    <t>Best score nostro  remaked</t>
+  </si>
+  <si>
+    <t>con limit=2</t>
+  </si>
+  <si>
+    <t>con limit=1</t>
+  </si>
+  <si>
+    <t>dr-sol2</t>
+  </si>
+  <si>
+    <t>Best score vecchio nostro (competition)</t>
+  </si>
+  <si>
+    <t>dr-sol2 / dr-sol1</t>
   </si>
 </sst>
 </file>
@@ -111,12 +129,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -142,6 +184,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -457,9 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0477EA-0528-AF4B-B13F-166FF85122DC}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -490,7 +540,7 @@
         <v>562500</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -501,7 +551,7 @@
         <v>348234</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -512,7 +562,7 @@
         <v>143153</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -523,7 +573,7 @@
         <v>476063</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -534,18 +584,18 @@
         <v>1010399</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="B7" s="1">
         <f>SUM(B2:B6)</f>
         <v>2540349</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>2171258</v>
@@ -557,7 +607,7 @@
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2651999</v>
@@ -569,7 +619,7 @@
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2578848</v>
@@ -577,6 +627,146 @@
       <c r="C12" s="4">
         <f>B7/B12</f>
         <v>0.98507124111231059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7">
+        <v>562500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>382917</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6">
+        <v>154376</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6">
+        <v>499720</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8">
+        <v>806419</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <f>SUM(B18:B22)</f>
+        <v>2405932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>2171258</v>
+      </c>
+      <c r="C26" s="4">
+        <f>B23/B26</f>
+        <v>1.1080820427604643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2540349</v>
+      </c>
+      <c r="C27" s="4">
+        <f>B23/B27</f>
+        <v>0.94708719156304899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2651999</v>
+      </c>
+      <c r="C28" s="4">
+        <f>B23/B28</f>
+        <v>0.90721452006580694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>2578848</v>
+      </c>
+      <c r="C29" s="4">
+        <f>B23/B29</f>
+        <v>0.93294835523458541</v>
       </c>
     </row>
   </sheetData>

--- a/rounds/2017-streaming/score.xlsx
+++ b/rounds/2017-streaming/score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieleratti/hashcode/hashcode-framework/rounds/2017-streaming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47903E3B-261D-D24E-967F-340823842FFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B2F0B-D547-B742-BAF5-44CEBC76FFAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="-28300" windowWidth="34120" windowHeight="28300" xr2:uid="{B82F76D9-6870-8643-87CF-9650B54CEEC4}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16540" xr2:uid="{B82F76D9-6870-8643-87CF-9650B54CEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>a</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Best score nostro  remaked</t>
   </si>
   <si>
-    <t>con limit=2</t>
-  </si>
-  <si>
     <t>con limit=1</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>dr-sol2 / dr-sol1</t>
+  </si>
+  <si>
+    <t>milly</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +595,7 @@
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>2171258</v>
@@ -656,7 +656,7 @@
         <v>562500</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -664,13 +664,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="6">
-        <v>382917</v>
+        <v>438361</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -681,10 +678,10 @@
         <v>154376</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -695,10 +692,10 @@
         <v>499720</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -709,28 +706,28 @@
         <v>806419</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <f>SUM(B18:B22)</f>
-        <v>2405932</v>
+        <v>2461376</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>2171258</v>
       </c>
       <c r="C26" s="4">
         <f>B23/B26</f>
-        <v>1.1080820427604643</v>
+        <v>1.1336174696880794</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -742,7 +739,7 @@
       </c>
       <c r="C27" s="4">
         <f>B23/B27</f>
-        <v>0.94708719156304899</v>
+        <v>0.96891253918260833</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -754,7 +751,7 @@
       </c>
       <c r="C28" s="4">
         <f>B23/B28</f>
-        <v>0.90721452006580694</v>
+        <v>0.92812101362029176</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -766,7 +763,7 @@
       </c>
       <c r="C29" s="4">
         <f>B23/B29</f>
-        <v>0.93294835523458541</v>
+        <v>0.95444787750189231</v>
       </c>
     </row>
   </sheetData>
